--- a/preglednica.xlsx
+++ b/preglednica.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E11D059-8EF0-4EF2-87C9-308D517292AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,38 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+  <si>
+    <t>dsfdsfsd</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>fsd</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +362,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C4:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/preglednica.xlsx
+++ b/preglednica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E11D059-8EF0-4EF2-87C9-308D517292AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D73DD55-1C0E-4A0D-B4DD-3F7C32809769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,15 +363,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:I14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -379,12 +394,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>1</v>
       </c>
@@ -392,7 +407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>5</v>
       </c>
@@ -400,12 +415,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
